--- a/data/landings/cdfw/public/fish_bulletins/raw/fb102/raw/Tables22-28.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb102/raw/Tables22-28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb102/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96C1614-BBA3-2343-8FEF-653FEECD196D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4306C0-9ED5-D545-A5C7-B2A129236529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23180" yWindow="1140" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="147">
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Pounds</t>
-  </si>
-  <si>
     <t>•Spiny lobster</t>
   </si>
   <si>
@@ -461,6 +455,12 @@
   </si>
   <si>
     <t>Sacramento region totals</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>pounds</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -526,7 +526,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="D407" sqref="D407"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,27 +860,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D2" s="3">
         <v>2519140</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3">
         <v>401920</v>
@@ -908,13 +908,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3">
         <v>242724</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3">
         <v>167851</v>
@@ -942,13 +942,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3">
         <v>39367</v>
@@ -959,13 +959,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" s="3">
         <v>35947</v>
@@ -976,13 +976,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3">
         <v>22123</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3">
         <v>13900</v>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3">
         <v>8639</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>19893</v>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3">
         <v>952364</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="5">
         <f>SUM(D3:D11)-D12</f>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3">
         <v>392357</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3">
         <v>81620</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>72703</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" s="3">
         <v>29115</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3">
         <v>25946</v>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3">
         <v>22065</v>
@@ -1176,13 +1176,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3">
         <v>6245</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3">
         <v>5709</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>635760</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D23" s="5">
         <f>SUM(D14:D21)-D22</f>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3">
         <v>288624</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3">
         <v>92793</v>
@@ -1274,13 +1274,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3">
         <v>68873</v>
@@ -1291,13 +1291,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3">
         <v>10783</v>
@@ -1308,13 +1308,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D28" s="3">
         <v>10774</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3">
         <v>5191</v>
@@ -1342,13 +1342,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3">
         <v>7180</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" s="3">
         <v>484218</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D32" s="5">
         <f>SUM(D24:D30)-D31</f>
@@ -1389,13 +1389,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3">
         <v>157099</v>
@@ -1406,13 +1406,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D34" s="3">
         <v>59872</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35" s="3">
         <v>43489</v>
@@ -1440,13 +1440,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D36" s="3">
         <v>23059</v>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D37" s="3">
         <v>9496</v>
@@ -1474,13 +1474,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38" s="3">
         <v>9306</v>
@@ -1491,13 +1491,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D39" s="3">
         <v>8639</v>
@@ -1508,13 +1508,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D40" s="3">
         <v>7257</v>
@@ -1525,13 +1525,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3">
         <v>14680</v>
@@ -1542,13 +1542,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D42" s="3">
         <v>332897</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C43" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D43" s="5">
         <f>SUM(D33:D41)-D42</f>
@@ -1572,13 +1572,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D44" s="3">
         <v>88024</v>
@@ -1589,13 +1589,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" s="3">
         <v>6375</v>
@@ -1606,13 +1606,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" s="3">
         <v>121</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" s="3">
         <v>94520</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C48" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="5">
         <f>SUM(D44:D46)-D47</f>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" s="3">
         <v>13282</v>
@@ -1670,13 +1670,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50" s="3">
         <v>109</v>
@@ -1687,13 +1687,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D51" s="3">
         <v>13391</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C52" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D52" s="5">
         <f>SUM(D49:D50)-D51</f>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53" s="3">
         <v>5990</v>
@@ -1734,13 +1734,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D54" s="3">
         <v>5990</v>
@@ -1753,17 +1753,17 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D56" s="6">
         <v>259478</v>
@@ -1774,13 +1774,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" s="3">
         <v>101479</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58" s="3">
         <v>37268</v>
@@ -1808,13 +1808,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D59" s="3">
         <v>2151</v>
@@ -1825,13 +1825,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60" s="3">
         <v>591</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D61" s="3">
         <v>141489</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C62" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D62" s="5">
         <f>SUM(D57:D60)-D61</f>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D63" s="3">
         <v>43837</v>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64" s="3">
         <v>3562</v>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D65" s="3">
         <v>10</v>
@@ -1923,13 +1923,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" s="3">
         <v>47409</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C67" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D67" s="5">
         <f>SUM(D63:D65)-D66</f>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D68" s="3">
         <v>15866</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D69" s="3">
         <v>14182</v>
@@ -1987,13 +1987,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D70" s="3">
         <v>3022</v>
@@ -2004,13 +2004,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D71" s="3">
         <v>33070</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C72" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D72" s="5">
         <f>SUM(D68:D70)-D71</f>
@@ -2034,13 +2034,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D73" s="3">
         <v>17551</v>
@@ -2051,13 +2051,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74" s="3">
         <v>1401</v>
@@ -2068,13 +2068,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D75" s="3">
         <v>18952</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C76" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D76" s="5">
         <f>SUM(D73:D74)-D75</f>
@@ -2098,13 +2098,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D77" s="3">
         <v>8882</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D78" s="3">
         <v>8882</v>
@@ -2132,20 +2132,20 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C79" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D80" s="3">
         <v>4943</v>
@@ -2156,13 +2156,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D81" s="3">
         <v>43</v>
@@ -2173,13 +2173,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D82" s="3">
         <v>4986</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C83" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D83" s="5">
         <f>SUM(D80:D81)-D82</f>
@@ -2203,13 +2203,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D84" s="3">
         <v>3366</v>
@@ -2220,13 +2220,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D85" s="3">
         <v>1324</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D86" s="3">
         <v>4690</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C87" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D87" s="5">
         <f>SUM(D84:D85)-D86</f>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D88" s="3">
         <v>14047187</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D89" s="3">
         <v>1378144</v>
@@ -2301,13 +2301,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D90" s="3">
         <v>432360</v>
@@ -2318,13 +2318,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D91" s="3">
         <v>157037</v>
@@ -2335,13 +2335,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D92" s="3">
         <v>156297</v>
@@ -2352,13 +2352,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D93" s="3">
         <v>139292</v>
@@ -2369,13 +2369,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D94" s="3">
         <v>95782</v>
@@ -2386,13 +2386,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D95" s="3">
         <v>64933</v>
@@ -2403,13 +2403,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D96" s="3">
         <v>59523</v>
@@ -2420,13 +2420,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D97" s="3">
         <v>39864</v>
@@ -2437,13 +2437,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" s="3">
         <v>38305</v>
@@ -2454,13 +2454,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D99" s="3">
         <v>31768</v>
@@ -2471,13 +2471,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D100" s="3">
         <v>11983</v>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D101" s="3">
         <v>11041</v>
@@ -2505,13 +2505,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D102" s="3">
         <v>10885</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D103" s="3">
         <v>10557</v>
@@ -2539,13 +2539,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D104" s="3">
         <v>43629</v>
@@ -2556,13 +2556,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D105" s="3">
         <v>2681400</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C106" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D106" s="5">
         <f>SUM(D89:D104)-D105</f>
@@ -2586,13 +2586,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D107" s="3">
         <v>377969</v>
@@ -2603,13 +2603,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D108" s="3">
         <v>77204</v>
@@ -2620,13 +2620,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D109" s="3">
         <v>17392</v>
@@ -2637,13 +2637,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D110" s="3">
         <v>17069</v>
@@ -2654,13 +2654,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D111" s="3">
         <v>12554</v>
@@ -2671,13 +2671,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D112" s="3">
         <v>502188</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C113" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D113" s="5">
         <f>SUM(D107:D111)-D112</f>
@@ -2701,13 +2701,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D114" s="3">
         <v>268081</v>
@@ -2718,13 +2718,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D115" s="3">
         <v>104279</v>
@@ -2735,13 +2735,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D116" s="3">
         <v>41456</v>
@@ -2752,13 +2752,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D117" s="3">
         <v>34230</v>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D118" s="3">
         <v>9277</v>
@@ -2786,13 +2786,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D119" s="3">
         <v>7454</v>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D120" s="3">
         <v>15489</v>
@@ -2820,13 +2820,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D121" s="3">
         <v>480266</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C122" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D122" s="5">
         <f>SUM(D114:D120)-D121</f>
@@ -2850,13 +2850,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D123" s="3">
         <v>182673</v>
@@ -2867,13 +2867,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D124" s="3">
         <v>9435</v>
@@ -2884,13 +2884,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D125" s="3">
         <v>3746</v>
@@ -2901,13 +2901,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D126" s="3">
         <v>195854</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C127" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D127" s="5">
         <f>SUM(D123:D125)-D126</f>
@@ -2931,13 +2931,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D128" s="3">
         <v>38025</v>
@@ -2948,13 +2948,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D129" s="3">
         <v>28360</v>
@@ -2965,13 +2965,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D130" s="3">
         <v>11442</v>
@@ -2982,13 +2982,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D131" s="3">
         <v>5432</v>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D132" s="3">
         <v>83259</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C133" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D133" s="5">
         <f>SUM(D128:D131)-D132</f>
@@ -3029,13 +3029,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D134" s="3">
         <v>38856</v>
@@ -3046,13 +3046,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D135" s="3">
         <v>17683</v>
@@ -3063,13 +3063,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D136" s="3">
         <v>5469</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D137" s="3">
         <v>62008</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C138" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D138" s="5">
         <f>SUM(D134:D136)-D137</f>
@@ -3110,13 +3110,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D139" s="3">
         <v>17051</v>
@@ -3127,13 +3127,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D140" s="3">
         <v>3720</v>
@@ -3144,13 +3144,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D141" s="3">
         <v>20771</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C142" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D142" s="5">
         <f>SUM(D139:D140)-D141</f>
@@ -3174,13 +3174,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D143" s="3">
         <v>4971</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D144" s="3">
         <v>4494</v>
@@ -3208,13 +3208,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D145" s="3">
         <v>129</v>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D146" s="3">
         <v>9594</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C147" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D147" s="5">
         <f>SUM(D143:D145)-D146</f>
@@ -3255,13 +3255,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D148" s="3">
         <v>9354</v>
@@ -3272,13 +3272,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D149" s="3">
         <v>167</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D150" s="3">
         <v>9521</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C151" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D151" s="5">
         <f>SUM(D148:D149)-D150</f>
@@ -3319,13 +3319,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D152" s="3">
         <v>2326</v>
@@ -3336,13 +3336,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D153" s="3">
         <v>2326</v>
@@ -3353,20 +3353,20 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C154" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D155" s="3">
         <v>1939001</v>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D156" s="3">
         <v>273501</v>
@@ -3394,13 +3394,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D157" s="3">
         <v>191732</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D158" s="3">
         <v>175242</v>
@@ -3428,13 +3428,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D159" s="3">
         <v>169294</v>
@@ -3445,13 +3445,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D160" s="3">
         <v>103255</v>
@@ -3462,13 +3462,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D161" s="3">
         <v>90318</v>
@@ -3479,13 +3479,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D162" s="3">
         <v>84340</v>
@@ -3496,13 +3496,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D163" s="3">
         <v>36314</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D164" s="3">
         <v>31480</v>
@@ -3530,13 +3530,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D165" s="3">
         <v>13909</v>
@@ -3547,13 +3547,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D166" s="3">
         <v>10826</v>
@@ -3564,13 +3564,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D167" s="3">
         <v>9797</v>
@@ -3581,13 +3581,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D168" s="3">
         <v>7919</v>
@@ -3598,13 +3598,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D169" s="3">
         <v>6117</v>
@@ -3615,13 +3615,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D170" s="3">
         <v>20458</v>
@@ -3632,13 +3632,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D171" s="3">
         <v>1224502</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C172" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D172" s="5">
         <f>SUM(D156:D170)-D171</f>
@@ -3662,13 +3662,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D173" s="3">
         <v>279259</v>
@@ -3679,13 +3679,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D174" s="3">
         <v>69818</v>
@@ -3696,13 +3696,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D175" s="3">
         <v>51124</v>
@@ -3713,13 +3713,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D176" s="3">
         <v>19399</v>
@@ -3730,13 +3730,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D177" s="3">
         <v>12943</v>
@@ -3747,13 +3747,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D178" s="3">
         <v>7561</v>
@@ -3764,13 +3764,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D179" s="3">
         <v>5163</v>
@@ -3781,13 +3781,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D180" s="3">
         <v>6522</v>
@@ -3798,13 +3798,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D181" s="3">
         <v>451789</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C182" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D182" s="5">
         <f>SUM(D173:D180)-D181</f>
@@ -3828,13 +3828,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D183" s="3">
         <v>66820</v>
@@ -3845,13 +3845,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D184" s="3">
         <v>58670</v>
@@ -3862,13 +3862,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D185" s="3">
         <v>40723</v>
@@ -3879,13 +3879,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D186" s="3">
         <v>28571</v>
@@ -3896,13 +3896,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D187" s="3">
         <v>13992</v>
@@ -3913,13 +3913,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D188" s="3">
         <v>12860</v>
@@ -3930,13 +3930,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D189" s="3">
         <v>7723</v>
@@ -3947,13 +3947,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D190" s="3">
         <v>7164</v>
@@ -3964,13 +3964,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D191" s="3">
         <v>25641</v>
@@ -3981,13 +3981,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D192" s="3">
         <v>262164</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C193" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D193" s="5">
         <f>SUM(D183:D191)-D192</f>
@@ -4011,13 +4011,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D194" s="3">
         <v>546</v>
@@ -4028,13 +4028,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D195" s="3">
         <v>546</v>
@@ -4045,20 +4045,20 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C196" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D197" s="3">
         <v>1658638</v>
@@ -4069,13 +4069,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D198" s="3">
         <v>480279</v>
@@ -4086,13 +4086,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D199" s="3">
         <v>253182</v>
@@ -4103,13 +4103,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D200" s="3">
         <v>32195</v>
@@ -4120,13 +4120,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D201" s="3">
         <v>8402</v>
@@ -4137,13 +4137,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D202" s="3">
         <v>17077</v>
@@ -4154,13 +4154,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D203" s="3">
         <v>791135</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C204" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D204" s="5">
         <f>SUM(D198:D202)-D203</f>
@@ -4184,13 +4184,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D205" s="3">
         <v>129840</v>
@@ -4201,13 +4201,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D206" s="3">
         <v>109274</v>
@@ -4218,13 +4218,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D207" s="3">
         <v>99290</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D208" s="3">
         <v>44186</v>
@@ -4252,13 +4252,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D209" s="3">
         <v>28171</v>
@@ -4269,13 +4269,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D210" s="3">
         <v>15585</v>
@@ -4286,13 +4286,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D211" s="3">
         <v>14884</v>
@@ -4303,13 +4303,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D212" s="3">
         <v>12597</v>
@@ -4320,13 +4320,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D213" s="3">
         <v>10219</v>
@@ -4337,13 +4337,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D214" s="3">
         <v>9823</v>
@@ -4354,13 +4354,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D215" s="3">
         <v>6031</v>
@@ -4371,13 +4371,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D216" s="3">
         <v>9103</v>
@@ -4388,13 +4388,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D217" s="3">
         <v>489003</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C218" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D218" s="5">
         <f>SUM(D205:D216)-D217</f>
@@ -4418,13 +4418,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D219" s="3">
         <v>171076</v>
@@ -4435,13 +4435,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D220" s="3">
         <v>20626</v>
@@ -4452,13 +4452,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D221" s="3">
         <v>19811</v>
@@ -4469,13 +4469,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D222" s="3">
         <v>16017</v>
@@ -4486,13 +4486,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D223" s="3">
         <v>10116</v>
@@ -4503,13 +4503,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D224" s="3">
         <v>6633</v>
@@ -4520,13 +4520,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D225" s="3">
         <v>244279</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C226" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D226" s="5">
         <f>SUM(D219:D224)-D225</f>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D227" s="3">
         <v>30606</v>
@@ -4567,13 +4567,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D228" s="3">
         <v>21384</v>
@@ -4584,13 +4584,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D229" s="3">
         <v>16930</v>
@@ -4601,13 +4601,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D230" s="3">
         <v>9153</v>
@@ -4618,13 +4618,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D231" s="3">
         <v>6477</v>
@@ -4635,13 +4635,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D232" s="3">
         <v>6064</v>
@@ -4652,13 +4652,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D233" s="3">
         <v>5441</v>
@@ -4669,13 +4669,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D234" s="3">
         <v>5034</v>
@@ -4686,13 +4686,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D235" s="3">
         <v>10512</v>
@@ -4703,13 +4703,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D236" s="3">
         <v>111601</v>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C237" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D237" s="5">
         <f>SUM(D227:D235)-D236</f>
@@ -4733,13 +4733,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D238" s="3">
         <v>14419</v>
@@ -4750,13 +4750,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D239" s="3">
         <v>14419</v>
@@ -4767,20 +4767,20 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C240" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D241" s="3">
         <v>5910</v>
@@ -4791,13 +4791,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D242" s="3">
         <v>5910</v>
@@ -4808,20 +4808,20 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C243" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D244" s="3">
         <v>2291</v>
@@ -4832,13 +4832,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D245" s="3">
         <v>2291</v>
@@ -4849,20 +4849,20 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C246" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D247" s="3">
         <v>40390320</v>
@@ -4873,13 +4873,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D248" s="3">
         <v>14501314</v>
@@ -4890,13 +4890,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D249" s="3">
         <v>9395135</v>
@@ -4907,13 +4907,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D250" s="3">
         <v>7956254</v>
@@ -4924,13 +4924,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D251" s="3">
         <v>1225486</v>
@@ -4941,13 +4941,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D252" s="3">
         <v>1014654</v>
@@ -4958,13 +4958,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D253" s="3">
         <v>215263</v>
@@ -4975,13 +4975,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D254" s="3">
         <v>210864</v>
@@ -4992,13 +4992,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D255" s="3">
         <v>179876</v>
@@ -5009,13 +5009,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D256" s="3">
         <v>139592</v>
@@ -5026,13 +5026,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D257" s="3">
         <v>128804</v>
@@ -5043,13 +5043,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D258" s="3">
         <v>73442</v>
@@ -5060,13 +5060,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D259" s="3">
         <v>1379</v>
@@ -5077,13 +5077,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D260" s="3">
         <v>35042063</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C261" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D261" s="5">
         <f>SUM(D248:D259)-D260</f>
@@ -5107,13 +5107,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D262" s="3">
         <v>508898</v>
@@ -5124,13 +5124,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D263" s="3">
         <v>397264</v>
@@ -5141,13 +5141,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D264" s="3">
         <v>304976</v>
@@ -5158,13 +5158,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D265" s="3">
         <v>289521</v>
@@ -5175,13 +5175,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D266" s="3">
         <v>99121</v>
@@ -5192,13 +5192,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D267" s="3">
         <v>80273</v>
@@ -5209,13 +5209,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D268" s="3">
         <v>79288</v>
@@ -5226,13 +5226,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D269" s="3">
         <v>44847</v>
@@ -5243,13 +5243,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D270" s="3">
         <v>37965</v>
@@ -5260,13 +5260,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D271" s="3">
         <v>32866</v>
@@ -5277,13 +5277,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D272" s="3">
         <v>20849</v>
@@ -5294,13 +5294,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D273" s="3">
         <v>17178</v>
@@ -5311,13 +5311,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D274" s="3">
         <v>10642</v>
@@ -5328,13 +5328,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D275" s="3">
         <v>8101</v>
@@ -5345,13 +5345,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D276" s="3">
         <v>14864</v>
@@ -5362,13 +5362,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D277" s="3">
         <v>1946653</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C278" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D278" s="5">
         <f>SUM(D262:D276)-D277</f>
@@ -5392,13 +5392,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D279" s="3">
         <v>181127</v>
@@ -5409,13 +5409,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D280" s="3">
         <v>171838</v>
@@ -5426,13 +5426,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D281" s="3">
         <v>135152</v>
@@ -5443,13 +5443,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D282" s="3">
         <v>104873</v>
@@ -5460,13 +5460,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D283" s="3">
         <v>94120</v>
@@ -5477,13 +5477,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D284" s="3">
         <v>85608</v>
@@ -5494,13 +5494,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D285" s="3">
         <v>65408</v>
@@ -5511,13 +5511,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D286" s="3">
         <v>55406</v>
@@ -5528,13 +5528,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D287" s="3">
         <v>54402</v>
@@ -5545,13 +5545,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D288" s="3">
         <v>51781</v>
@@ -5562,13 +5562,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D289" s="3">
         <v>42308</v>
@@ -5579,13 +5579,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D290" s="3">
         <v>32639</v>
@@ -5596,13 +5596,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D291" s="3">
         <v>32102</v>
@@ -5613,13 +5613,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D292" s="3">
         <v>30328</v>
@@ -5630,13 +5630,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D293" s="3">
         <v>18223</v>
@@ -5647,13 +5647,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D294" s="3">
         <v>16851</v>
@@ -5664,13 +5664,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D295" s="3">
         <v>16761</v>
@@ -5681,13 +5681,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D296" s="3">
         <v>15010</v>
@@ -5698,13 +5698,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D297" s="3">
         <v>10995</v>
@@ -5715,13 +5715,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D298" s="3">
         <v>9001</v>
@@ -5732,13 +5732,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D299" s="3">
         <v>8668</v>
@@ -5749,13 +5749,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D300" s="3">
         <v>7488</v>
@@ -5766,13 +5766,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D301" s="3">
         <v>5186</v>
@@ -5783,13 +5783,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D302" s="3">
         <v>4925</v>
@@ -5800,13 +5800,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D303" s="3">
         <v>17656</v>
@@ -5817,13 +5817,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D304" s="3">
         <v>1267856</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C305" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D305" s="5">
         <f>SUM(D279:D303)-D304</f>
@@ -5847,13 +5847,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D306" s="3">
         <v>281291</v>
@@ -5864,13 +5864,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D307" s="3">
         <v>251619</v>
@@ -5881,13 +5881,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D308" s="3">
         <v>161092</v>
@@ -5898,13 +5898,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D309" s="3">
         <v>143362</v>
@@ -5915,13 +5915,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D310" s="3">
         <v>114245</v>
@@ -5932,13 +5932,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D311" s="3">
         <v>54219</v>
@@ -5949,13 +5949,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D312" s="3">
         <v>35018</v>
@@ -5966,13 +5966,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D313" s="3">
         <v>31013</v>
@@ -5983,13 +5983,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D314" s="3">
         <v>15777</v>
@@ -6000,13 +6000,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D315" s="3">
         <v>5627</v>
@@ -6017,13 +6017,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D316" s="3">
         <v>5154</v>
@@ -6034,13 +6034,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D317" s="3">
         <v>1098417</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C318" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D318" s="5">
         <f>SUM(D306:D316)-D317</f>
@@ -6064,13 +6064,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D319" s="3">
         <v>162936</v>
@@ -6081,13 +6081,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D320" s="3">
         <v>132013</v>
@@ -6098,13 +6098,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D321" s="3">
         <v>75387</v>
@@ -6115,13 +6115,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D322" s="3">
         <v>46922</v>
@@ -6132,13 +6132,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D323" s="3">
         <v>30433</v>
@@ -6149,13 +6149,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D324" s="3">
         <v>17873</v>
@@ -6166,13 +6166,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D325" s="3">
         <v>7908</v>
@@ -6183,13 +6183,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D326" s="3">
         <v>7898</v>
@@ -6200,13 +6200,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D327" s="3">
         <v>13513</v>
@@ -6217,13 +6217,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D328" s="3">
         <v>494883</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C329" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D329" s="5">
         <f>SUM(D319:D327)-D328</f>
@@ -6247,13 +6247,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D330" s="3">
         <v>218339</v>
@@ -6264,13 +6264,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D331" s="3">
         <v>44505</v>
@@ -6281,13 +6281,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D332" s="3">
         <v>25223</v>
@@ -6298,13 +6298,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D333" s="3">
         <v>46210</v>
@@ -6315,13 +6315,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D334" s="3">
         <v>334277</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C335" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D335" s="5">
         <f>SUM(D330:D333)-D334</f>
@@ -6345,13 +6345,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D336" s="3">
         <v>38865</v>
@@ -6362,13 +6362,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D337" s="3">
         <v>35092</v>
@@ -6379,13 +6379,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D338" s="3">
         <v>33336</v>
@@ -6396,13 +6396,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D339" s="3">
         <v>19399</v>
@@ -6413,13 +6413,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D340" s="3">
         <v>6632</v>
@@ -6430,13 +6430,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D341" s="3">
         <v>5901</v>
@@ -6447,13 +6447,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D342" s="3">
         <v>3952</v>
@@ -6464,13 +6464,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D343" s="3">
         <v>3630</v>
@@ -6481,13 +6481,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D344" s="3">
         <v>2692</v>
@@ -6498,13 +6498,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D345" s="3">
         <v>8215</v>
@@ -6515,13 +6515,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D346" s="3">
         <v>157714</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C347" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D347" s="5">
         <f>SUM(D336:D345)-D346</f>
@@ -6545,13 +6545,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D348" s="3">
         <v>8541</v>
@@ -6562,13 +6562,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D349" s="3">
         <v>2250</v>
@@ -6579,13 +6579,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D350" s="3">
         <v>4390</v>
@@ -6596,13 +6596,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D351" s="3">
         <v>15181</v>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C352" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D352" s="5">
         <f>SUM(D348:D350)-D351</f>
@@ -6626,13 +6626,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D353" s="3">
         <v>7739</v>
@@ -6643,13 +6643,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D354" s="3">
         <v>1587</v>
@@ -6660,13 +6660,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D355" s="3">
         <v>3394</v>
@@ -6677,13 +6677,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D356" s="3">
         <v>12720</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C357" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D357" s="5">
         <f>SUM(D353:D355)-D356</f>
@@ -6707,13 +6707,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D358" s="3">
         <v>9488</v>
@@ -6724,13 +6724,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D359" s="3">
         <v>1752</v>
@@ -6741,13 +6741,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D360" s="3">
         <v>11240</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C361" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D361" s="5">
         <f>SUM(D358:D359)-D360</f>
@@ -6771,13 +6771,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D362" s="3">
         <v>5731</v>
@@ -6788,13 +6788,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D363" s="3">
         <v>3585</v>
@@ -6805,13 +6805,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D364" s="3">
         <v>9316</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C365" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D365" s="5">
         <f>SUM(D362:D363)-D364</f>
@@ -6835,13 +6835,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D366" s="3">
         <v>20714483</v>
@@ -6852,13 +6852,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D367" s="3">
         <v>7737373</v>
@@ -6869,13 +6869,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D368" s="3">
         <v>6948122</v>
@@ -6886,13 +6886,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D369" s="3">
         <v>5056305</v>
@@ -6903,13 +6903,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D370" s="3">
         <v>248368</v>
@@ -6920,13 +6920,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D371" s="3">
         <v>228962</v>
@@ -6937,13 +6937,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D372" s="3">
         <v>73821</v>
@@ -6954,13 +6954,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D373" s="3">
         <v>73151</v>
@@ -6971,13 +6971,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D374" s="3">
         <v>57400</v>
@@ -6988,13 +6988,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D375" s="3">
         <v>45395</v>
@@ -7005,13 +7005,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D376" s="3">
         <v>45074</v>
@@ -7022,13 +7022,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D377" s="3">
         <v>43914</v>
@@ -7039,13 +7039,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D378" s="3">
         <v>26681</v>
@@ -7056,13 +7056,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D379" s="3">
         <v>19913</v>
@@ -7073,13 +7073,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D380" s="3">
         <v>16669</v>
@@ -7090,13 +7090,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D381" s="3">
         <v>12933</v>
@@ -7107,13 +7107,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D382" s="3">
         <v>11603</v>
@@ -7124,13 +7124,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D383" s="3">
         <v>8075</v>
@@ -7141,13 +7141,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D384" s="3">
         <v>8012</v>
@@ -7158,13 +7158,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D385" s="3">
         <v>18174</v>
@@ -7175,13 +7175,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D386" s="3">
         <v>20679945</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C387" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D387" s="5">
         <f>SUM(D367:D385)-D386</f>
@@ -7205,13 +7205,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D388" s="3">
         <v>7752</v>
@@ -7222,13 +7222,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D389" s="3">
         <v>2262</v>
@@ -7239,13 +7239,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D390" s="3">
         <v>1738</v>
@@ -7256,13 +7256,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D391" s="3">
         <v>11752</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C392" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D392" s="5">
         <f>SUM(D388:D390)-D391</f>
@@ -7286,13 +7286,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D393" s="3">
         <v>9512</v>
@@ -7303,13 +7303,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D394" s="3">
         <v>9512</v>
@@ -7320,20 +7320,20 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C395" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D396" s="3">
         <v>4083</v>
@@ -7344,13 +7344,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D397" s="3">
         <v>2290</v>
@@ -7361,13 +7361,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D398" s="3">
         <v>2683</v>
@@ -7378,13 +7378,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D399" s="3">
         <v>9056</v>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C400" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D400" s="5">
         <f>SUM(D396:D398)-D399</f>
@@ -7408,13 +7408,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D401" s="3">
         <v>2243</v>
@@ -7425,13 +7425,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D402" s="3">
         <v>820</v>
@@ -7442,13 +7442,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D403" s="3">
         <v>3063</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C404" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D404" s="5">
         <f>SUM(D401:D402)-D403</f>
@@ -7472,13 +7472,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D405" s="3">
         <v>1155</v>
@@ -7489,13 +7489,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D406" s="3">
         <v>1155</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C407" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb102/raw/Tables22-28.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb102/raw/Tables22-28.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb102/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4306C0-9ED5-D545-A5C7-B2A129236529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EB3A7A-A27F-5E40-BF68-835F171DF1BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23180" yWindow="1140" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$407</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="149">
   <si>
     <t>•Spiny lobster</t>
   </si>
@@ -461,6 +464,12 @@
   </si>
   <si>
     <t>pounds</t>
+  </si>
+  <si>
+    <t>All species</t>
+  </si>
+  <si>
+    <t>All other species</t>
   </si>
 </sst>
 </file>
@@ -844,17 +853,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -879,8 +888,11 @@
       <c r="A2" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3">
         <v>2519140</v>
@@ -1723,7 +1735,7 @@
         <v>95</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D53" s="3">
         <v>5990</v>
@@ -1755,15 +1767,22 @@
       <c r="C55" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="D56" s="6">
         <v>259478</v>
@@ -2134,8 +2153,12 @@
       <c r="C79" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+      <c r="D79" s="5">
+        <v>0</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -2226,7 +2249,7 @@
         <v>95</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="D85" s="3">
         <v>1324</v>
@@ -2270,10 +2293,10 @@
         <v>3</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D88" s="3">
         <v>14047187</v>
@@ -3325,7 +3348,7 @@
         <v>95</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D152" s="3">
         <v>2326</v>
@@ -3355,18 +3378,22 @@
       <c r="C154" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
+      <c r="D154" s="5">
+        <v>0</v>
+      </c>
+      <c r="E154" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D155" s="3">
         <v>1939001</v>
@@ -4017,7 +4044,7 @@
         <v>95</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D194" s="3">
         <v>546</v>
@@ -4047,18 +4074,22 @@
       <c r="C196" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
+      <c r="D196" s="5">
+        <v>0</v>
+      </c>
+      <c r="E196" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D197" s="3">
         <v>1658638</v>
@@ -4769,8 +4800,12 @@
       <c r="C240" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
+      <c r="D240" s="5">
+        <v>0</v>
+      </c>
+      <c r="E240" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
@@ -4810,8 +4845,12 @@
       <c r="C243" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
+      <c r="D243" s="5">
+        <v>0</v>
+      </c>
+      <c r="E243" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
@@ -4821,7 +4860,7 @@
         <v>95</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D244" s="3">
         <v>2291</v>
@@ -4851,18 +4890,22 @@
       <c r="C246" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
+      <c r="D246" s="5">
+        <v>0</v>
+      </c>
+      <c r="E246" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="D247" s="3">
         <v>40390320</v>
@@ -6794,7 +6837,7 @@
         <v>95</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="D363" s="3">
         <v>3585</v>
@@ -6838,10 +6881,10 @@
         <v>7</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="D366" s="3">
         <v>20714483</v>
@@ -7322,8 +7365,12 @@
       <c r="C395" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D395" s="5"/>
-      <c r="E395" s="5"/>
+      <c r="D395" s="5">
+        <v>0</v>
+      </c>
+      <c r="E395" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
@@ -7478,7 +7525,7 @@
         <v>95</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D405" s="3">
         <v>1155</v>
@@ -7508,10 +7555,15 @@
       <c r="C407" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D407" s="5"/>
-      <c r="E407" s="5"/>
+      <c r="D407" s="5">
+        <v>0</v>
+      </c>
+      <c r="E407" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E407" xr:uid="{79CFA585-A3C8-7540-B182-A62E5C07FBD2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>